--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flipp\Documents\Computer Science\Research\AOPST\AccessOptimizedPST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A34A9BB-5C5C-4ABC-8381-B176BF5DAD00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CE9C5-1A68-44E1-9CBF-1784D9DB55CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="10890" activeTab="1" xr2:uid="{3B639F8C-04EC-4DED-8094-91965119A0DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B639F8C-04EC-4DED-8094-91965119A0DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Character" sheetId="2" r:id="rId1"/>
+    <sheet name="Lyrics" sheetId="2" r:id="rId1"/>
     <sheet name="Population" sheetId="3" r:id="rId2"/>
+    <sheet name="Poem" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="29">
   <si>
     <t>Search Key</t>
   </si>
@@ -110,6 +111,15 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -463,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD720692-B8DF-4A33-B30C-EC8F78E919F6}">
   <dimension ref="A1:D803"/>
   <sheetViews>
-    <sheetView topLeftCell="A802" workbookViewId="0">
-      <selection activeCell="D804" sqref="D804"/>
+    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
+      <selection activeCell="K817" sqref="K817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12019,7 +12029,7 @@
         <v>12</v>
       </c>
       <c r="D770">
-        <f t="shared" ref="D770:D833" si="12">B770-C770</f>
+        <f t="shared" ref="D770:D802" si="12">B770-C770</f>
         <v>2</v>
       </c>
     </row>
@@ -12521,15 +12531,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7A3052-E62B-4F39-BA07-0103CD90ABC2}">
   <dimension ref="A1:D234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="F238" sqref="F238"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15437,7 +15447,7 @@
         <v>7</v>
       </c>
       <c r="D194">
-        <f t="shared" ref="D194:D257" si="3">B194-C194</f>
+        <f t="shared" ref="D194:D233" si="3">B194-C194</f>
         <v>3</v>
       </c>
     </row>
@@ -16033,6 +16043,8517 @@
       <c r="D234">
         <f>SUM(D2:D233)</f>
         <v>-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D567"/>
+  <sheetViews>
+    <sheetView topLeftCell="A547" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="0">B2-C2</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D129" si="1">B66-C66</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>18</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <v>18</v>
+      </c>
+      <c r="C102">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>14</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>14</v>
+      </c>
+      <c r="C107">
+        <v>19</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <v>18</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>14</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>15</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>9</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>11</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>14</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>12</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ref="D130:D193" si="2">B130-C130</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>16</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135">
+        <v>14</v>
+      </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>7</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>9</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>18</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>14</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143">
+        <v>18</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>14</v>
+      </c>
+      <c r="C149">
+        <v>16</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>9</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>18</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155">
+        <v>18</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>9</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>14</v>
+      </c>
+      <c r="C157">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158">
+        <v>14</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160">
+        <v>18</v>
+      </c>
+      <c r="C160">
+        <v>19</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161">
+        <v>18</v>
+      </c>
+      <c r="C161">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162">
+        <v>14</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164">
+        <v>14</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165">
+        <v>14</v>
+      </c>
+      <c r="C165">
+        <v>7</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166">
+        <v>18</v>
+      </c>
+      <c r="C166">
+        <v>14</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167">
+        <v>14</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168">
+        <v>14</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>9</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170">
+        <v>14</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
+      </c>
+      <c r="C171">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172">
+        <v>14</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>14</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175">
+        <v>14</v>
+      </c>
+      <c r="C175">
+        <v>21</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176">
+        <v>14</v>
+      </c>
+      <c r="C176">
+        <v>14</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>14</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178">
+        <v>14</v>
+      </c>
+      <c r="C178">
+        <v>14</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179">
+        <v>18</v>
+      </c>
+      <c r="C179">
+        <v>22</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>13</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181">
+        <v>14</v>
+      </c>
+      <c r="C181">
+        <v>9</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182">
+        <v>14</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>8</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184">
+        <v>18</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185">
+        <v>14</v>
+      </c>
+      <c r="C185">
+        <v>9</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>12</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187">
+        <v>14</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189">
+        <v>18</v>
+      </c>
+      <c r="C189">
+        <v>9</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <v>6</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194">
+        <v>14</v>
+      </c>
+      <c r="C194">
+        <v>9</v>
+      </c>
+      <c r="D194">
+        <f t="shared" ref="D194:D257" si="3">B194-C194</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195">
+        <v>18</v>
+      </c>
+      <c r="C195">
+        <v>9</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196">
+        <v>14</v>
+      </c>
+      <c r="C196">
+        <v>22</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197">
+        <v>10</v>
+      </c>
+      <c r="C197">
+        <v>8</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198">
+        <v>14</v>
+      </c>
+      <c r="C198">
+        <v>12</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>18</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200">
+        <v>18</v>
+      </c>
+      <c r="C200">
+        <v>11</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>12</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>22</v>
+      </c>
+      <c r="B202">
+        <v>18</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204">
+        <v>18</v>
+      </c>
+      <c r="C204">
+        <v>19</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205">
+        <v>14</v>
+      </c>
+      <c r="C205">
+        <v>17</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207">
+        <v>14</v>
+      </c>
+      <c r="C207">
+        <v>17</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208">
+        <v>10</v>
+      </c>
+      <c r="C208">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209">
+        <v>10</v>
+      </c>
+      <c r="C209">
+        <v>13</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211">
+        <v>14</v>
+      </c>
+      <c r="C211">
+        <v>11</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212">
+        <v>18</v>
+      </c>
+      <c r="C212">
+        <v>17</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213">
+        <v>14</v>
+      </c>
+      <c r="C213">
+        <v>9</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214">
+        <v>6</v>
+      </c>
+      <c r="C214">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215">
+        <v>14</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216">
+        <v>14</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217">
+        <v>14</v>
+      </c>
+      <c r="C217">
+        <v>10</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>4</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219">
+        <v>15</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220">
+        <v>10</v>
+      </c>
+      <c r="C220">
+        <v>19</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221">
+        <v>10</v>
+      </c>
+      <c r="C221">
+        <v>15</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+      <c r="C222">
+        <v>6</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223">
+        <v>10</v>
+      </c>
+      <c r="C223">
+        <v>9</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224">
+        <v>10</v>
+      </c>
+      <c r="C224">
+        <v>12</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>13</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226">
+        <v>10</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227">
+        <v>10</v>
+      </c>
+      <c r="C227">
+        <v>13</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>11</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229">
+        <v>6</v>
+      </c>
+      <c r="C229">
+        <v>6</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230">
+        <v>14</v>
+      </c>
+      <c r="C230">
+        <v>19</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>3</v>
+      </c>
+      <c r="B231">
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <v>12</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232">
+        <v>14</v>
+      </c>
+      <c r="C232">
+        <v>21</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>14</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234">
+        <v>18</v>
+      </c>
+      <c r="C234">
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235">
+        <v>18</v>
+      </c>
+      <c r="C235">
+        <v>11</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236">
+        <v>14</v>
+      </c>
+      <c r="C236">
+        <v>9</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237">
+        <v>6</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238">
+        <v>14</v>
+      </c>
+      <c r="C238">
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239">
+        <v>18</v>
+      </c>
+      <c r="C239">
+        <v>12</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
+      </c>
+      <c r="C240">
+        <v>12</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>16</v>
+      </c>
+      <c r="B241">
+        <v>14</v>
+      </c>
+      <c r="C241">
+        <v>7</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242">
+        <v>10</v>
+      </c>
+      <c r="C242">
+        <v>10</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243">
+        <v>14</v>
+      </c>
+      <c r="C243">
+        <v>12</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244">
+        <v>6</v>
+      </c>
+      <c r="C244">
+        <v>6</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>3</v>
+      </c>
+      <c r="B245">
+        <v>10</v>
+      </c>
+      <c r="C245">
+        <v>10</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>3</v>
+      </c>
+      <c r="B246">
+        <v>10</v>
+      </c>
+      <c r="C246">
+        <v>7</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>19</v>
+      </c>
+      <c r="B247">
+        <v>14</v>
+      </c>
+      <c r="C247">
+        <v>11</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>9</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249">
+        <v>18</v>
+      </c>
+      <c r="C249">
+        <v>17</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250">
+        <v>6</v>
+      </c>
+      <c r="C250">
+        <v>6</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251">
+        <v>14</v>
+      </c>
+      <c r="C251">
+        <v>15</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252">
+        <v>14</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253">
+        <v>14</v>
+      </c>
+      <c r="C253">
+        <v>16</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>10</v>
+      </c>
+      <c r="C254">
+        <v>9</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>14</v>
+      </c>
+      <c r="B255">
+        <v>18</v>
+      </c>
+      <c r="C255">
+        <v>14</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256">
+        <v>10</v>
+      </c>
+      <c r="C256">
+        <v>16</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>19</v>
+      </c>
+      <c r="B257">
+        <v>14</v>
+      </c>
+      <c r="C257">
+        <v>14</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>6</v>
+      </c>
+      <c r="D258">
+        <f t="shared" ref="D258:D321" si="4">B258-C258</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>16</v>
+      </c>
+      <c r="B259">
+        <v>14</v>
+      </c>
+      <c r="C259">
+        <v>14</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="C260">
+        <v>6</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>19</v>
+      </c>
+      <c r="B261">
+        <v>14</v>
+      </c>
+      <c r="C261">
+        <v>7</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263">
+        <v>10</v>
+      </c>
+      <c r="C263">
+        <v>9</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264">
+        <v>10</v>
+      </c>
+      <c r="C264">
+        <v>16</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265">
+        <v>10</v>
+      </c>
+      <c r="C265">
+        <v>16</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>16</v>
+      </c>
+      <c r="B266">
+        <v>14</v>
+      </c>
+      <c r="C266">
+        <v>9</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267">
+        <v>10</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268">
+        <v>6</v>
+      </c>
+      <c r="C268">
+        <v>15</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>19</v>
+      </c>
+      <c r="B269">
+        <v>14</v>
+      </c>
+      <c r="C269">
+        <v>6</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271">
+        <v>18</v>
+      </c>
+      <c r="C271">
+        <v>14</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>16</v>
+      </c>
+      <c r="B272">
+        <v>14</v>
+      </c>
+      <c r="C272">
+        <v>12</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>9</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274">
+        <v>6</v>
+      </c>
+      <c r="C274">
+        <v>6</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>18</v>
+      </c>
+      <c r="B275">
+        <v>14</v>
+      </c>
+      <c r="C275">
+        <v>17</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276">
+        <v>14</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277">
+        <v>14</v>
+      </c>
+      <c r="C277">
+        <v>13</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278">
+        <v>6</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>17</v>
+      </c>
+      <c r="B279">
+        <v>14</v>
+      </c>
+      <c r="C279">
+        <v>9</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>8</v>
+      </c>
+      <c r="B280">
+        <v>10</v>
+      </c>
+      <c r="C280">
+        <v>7</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281">
+        <v>18</v>
+      </c>
+      <c r="C281">
+        <v>14</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>3</v>
+      </c>
+      <c r="B282">
+        <v>6</v>
+      </c>
+      <c r="C282">
+        <v>9</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283">
+        <v>6</v>
+      </c>
+      <c r="C283">
+        <v>7</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>19</v>
+      </c>
+      <c r="B284">
+        <v>14</v>
+      </c>
+      <c r="C284">
+        <v>14</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>2</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285">
+        <v>9</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>13</v>
+      </c>
+      <c r="B286">
+        <v>14</v>
+      </c>
+      <c r="C286">
+        <v>18</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287">
+        <v>6</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288">
+        <v>18</v>
+      </c>
+      <c r="C288">
+        <v>17</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>11</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290">
+        <v>6</v>
+      </c>
+      <c r="C290">
+        <v>4</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>12</v>
+      </c>
+      <c r="B291">
+        <v>10</v>
+      </c>
+      <c r="C291">
+        <v>12</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292">
+        <v>14</v>
+      </c>
+      <c r="C292">
+        <v>6</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>17</v>
+      </c>
+      <c r="B293">
+        <v>18</v>
+      </c>
+      <c r="C293">
+        <v>9</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>8</v>
+      </c>
+      <c r="B294">
+        <v>10</v>
+      </c>
+      <c r="C294">
+        <v>10</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295">
+        <v>6</v>
+      </c>
+      <c r="C295">
+        <v>7</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>19</v>
+      </c>
+      <c r="B296">
+        <v>10</v>
+      </c>
+      <c r="C296">
+        <v>16</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297">
+        <v>6</v>
+      </c>
+      <c r="C297">
+        <v>10</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>19</v>
+      </c>
+      <c r="B298">
+        <v>10</v>
+      </c>
+      <c r="C298">
+        <v>11</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299">
+        <v>6</v>
+      </c>
+      <c r="C299">
+        <v>6</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300">
+        <v>6</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301">
+        <v>18</v>
+      </c>
+      <c r="C301">
+        <v>14</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>8</v>
+      </c>
+      <c r="B302">
+        <v>10</v>
+      </c>
+      <c r="C302">
+        <v>9</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>16</v>
+      </c>
+      <c r="B303">
+        <v>14</v>
+      </c>
+      <c r="C303">
+        <v>9</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>12</v>
+      </c>
+      <c r="B304">
+        <v>10</v>
+      </c>
+      <c r="C304">
+        <v>9</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>15</v>
+      </c>
+      <c r="B305">
+        <v>14</v>
+      </c>
+      <c r="C305">
+        <v>11</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306">
+        <v>10</v>
+      </c>
+      <c r="C306">
+        <v>7</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307">
+        <v>14</v>
+      </c>
+      <c r="C307">
+        <v>11</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>2</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>7</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>28</v>
+      </c>
+      <c r="B309">
+        <v>18</v>
+      </c>
+      <c r="C309">
+        <v>18</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>9</v>
+      </c>
+      <c r="B310">
+        <v>18</v>
+      </c>
+      <c r="C310">
+        <v>10</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311">
+        <v>6</v>
+      </c>
+      <c r="C311">
+        <v>10</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>18</v>
+      </c>
+      <c r="B312">
+        <v>14</v>
+      </c>
+      <c r="C312">
+        <v>19</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>18</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>4</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>7</v>
+      </c>
+      <c r="B314">
+        <v>14</v>
+      </c>
+      <c r="C314">
+        <v>10</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>18</v>
+      </c>
+      <c r="B315">
+        <v>14</v>
+      </c>
+      <c r="C315">
+        <v>9</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316">
+        <v>6</v>
+      </c>
+      <c r="C316">
+        <v>6</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317">
+        <v>14</v>
+      </c>
+      <c r="C317">
+        <v>10</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318">
+        <v>14</v>
+      </c>
+      <c r="C318">
+        <v>12</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>12</v>
+      </c>
+      <c r="B319">
+        <v>10</v>
+      </c>
+      <c r="C319">
+        <v>9</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>18</v>
+      </c>
+      <c r="B320">
+        <v>14</v>
+      </c>
+      <c r="C320">
+        <v>7</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>2</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>11</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322">
+        <v>6</v>
+      </c>
+      <c r="C322">
+        <v>6</v>
+      </c>
+      <c r="D322">
+        <f t="shared" ref="D322:D385" si="5">B322-C322</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>21</v>
+      </c>
+      <c r="B323">
+        <v>14</v>
+      </c>
+      <c r="C323">
+        <v>20</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>2</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <v>6</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325">
+        <v>14</v>
+      </c>
+      <c r="C325">
+        <v>14</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326">
+        <v>10</v>
+      </c>
+      <c r="C326">
+        <v>9</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>8</v>
+      </c>
+      <c r="B327">
+        <v>10</v>
+      </c>
+      <c r="C327">
+        <v>9</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328">
+        <v>14</v>
+      </c>
+      <c r="C328">
+        <v>13</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+      <c r="B329">
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <v>9</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>2</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330">
+        <v>11</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>27</v>
+      </c>
+      <c r="B331">
+        <v>18</v>
+      </c>
+      <c r="C331">
+        <v>17</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>19</v>
+      </c>
+      <c r="B332">
+        <v>10</v>
+      </c>
+      <c r="C332">
+        <v>16</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333">
+        <v>6</v>
+      </c>
+      <c r="C333">
+        <v>6</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334">
+        <v>14</v>
+      </c>
+      <c r="C334">
+        <v>9</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335">
+        <v>6</v>
+      </c>
+      <c r="C335">
+        <v>16</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>16</v>
+      </c>
+      <c r="B336">
+        <v>14</v>
+      </c>
+      <c r="C336">
+        <v>17</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>8</v>
+      </c>
+      <c r="B337">
+        <v>10</v>
+      </c>
+      <c r="C337">
+        <v>14</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338">
+        <v>14</v>
+      </c>
+      <c r="C338">
+        <v>6</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339">
+        <v>14</v>
+      </c>
+      <c r="C339">
+        <v>4</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>2</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <v>9</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>12</v>
+      </c>
+      <c r="B341">
+        <v>10</v>
+      </c>
+      <c r="C341">
+        <v>9</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>17</v>
+      </c>
+      <c r="B342">
+        <v>18</v>
+      </c>
+      <c r="C342">
+        <v>9</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>18</v>
+      </c>
+      <c r="B343">
+        <v>14</v>
+      </c>
+      <c r="C343">
+        <v>12</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>5</v>
+      </c>
+      <c r="B344">
+        <v>6</v>
+      </c>
+      <c r="C344">
+        <v>8</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>22</v>
+      </c>
+      <c r="B345">
+        <v>18</v>
+      </c>
+      <c r="C345">
+        <v>12</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346">
+        <v>18</v>
+      </c>
+      <c r="C346">
+        <v>12</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>8</v>
+      </c>
+      <c r="B347">
+        <v>10</v>
+      </c>
+      <c r="C347">
+        <v>13</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>19</v>
+      </c>
+      <c r="B348">
+        <v>10</v>
+      </c>
+      <c r="C348">
+        <v>13</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>15</v>
+      </c>
+      <c r="B349">
+        <v>14</v>
+      </c>
+      <c r="C349">
+        <v>12</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>6</v>
+      </c>
+      <c r="B350">
+        <v>18</v>
+      </c>
+      <c r="C350">
+        <v>10</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>2</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351">
+        <v>11</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>27</v>
+      </c>
+      <c r="B352">
+        <v>18</v>
+      </c>
+      <c r="C352">
+        <v>12</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353">
+        <v>6</v>
+      </c>
+      <c r="C353">
+        <v>7</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>3</v>
+      </c>
+      <c r="B354">
+        <v>6</v>
+      </c>
+      <c r="C354">
+        <v>7</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>19</v>
+      </c>
+      <c r="B355">
+        <v>10</v>
+      </c>
+      <c r="C355">
+        <v>14</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>2</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+      <c r="C356">
+        <v>9</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>20</v>
+      </c>
+      <c r="B357">
+        <v>18</v>
+      </c>
+      <c r="C357">
+        <v>9</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>15</v>
+      </c>
+      <c r="B358">
+        <v>14</v>
+      </c>
+      <c r="C358">
+        <v>12</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>16</v>
+      </c>
+      <c r="B359">
+        <v>14</v>
+      </c>
+      <c r="C359">
+        <v>7</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>13</v>
+      </c>
+      <c r="B360">
+        <v>14</v>
+      </c>
+      <c r="C360">
+        <v>9</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>3</v>
+      </c>
+      <c r="B361">
+        <v>6</v>
+      </c>
+      <c r="C361">
+        <v>7</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>20</v>
+      </c>
+      <c r="B362">
+        <v>18</v>
+      </c>
+      <c r="C362">
+        <v>14</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>8</v>
+      </c>
+      <c r="B363">
+        <v>10</v>
+      </c>
+      <c r="C363">
+        <v>11</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>16</v>
+      </c>
+      <c r="B364">
+        <v>14</v>
+      </c>
+      <c r="C364">
+        <v>7</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365">
+        <v>6</v>
+      </c>
+      <c r="C365">
+        <v>4</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>12</v>
+      </c>
+      <c r="B366">
+        <v>10</v>
+      </c>
+      <c r="C366">
+        <v>15</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>8</v>
+      </c>
+      <c r="B367">
+        <v>10</v>
+      </c>
+      <c r="C367">
+        <v>7</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368">
+        <v>6</v>
+      </c>
+      <c r="C368">
+        <v>10</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>19</v>
+      </c>
+      <c r="B369">
+        <v>10</v>
+      </c>
+      <c r="C369">
+        <v>18</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>2</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370">
+        <v>11</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>16</v>
+      </c>
+      <c r="B371">
+        <v>14</v>
+      </c>
+      <c r="C371">
+        <v>7</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>10</v>
+      </c>
+      <c r="B372">
+        <v>14</v>
+      </c>
+      <c r="C372">
+        <v>9</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373">
+        <v>6</v>
+      </c>
+      <c r="C373">
+        <v>6</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>7</v>
+      </c>
+      <c r="B374">
+        <v>14</v>
+      </c>
+      <c r="C374">
+        <v>16</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375">
+        <v>14</v>
+      </c>
+      <c r="C375">
+        <v>7</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>2</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>11</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377">
+        <v>6</v>
+      </c>
+      <c r="C377">
+        <v>12</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>6</v>
+      </c>
+      <c r="B378">
+        <v>18</v>
+      </c>
+      <c r="C378">
+        <v>14</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379">
+        <v>10</v>
+      </c>
+      <c r="C379">
+        <v>9</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>8</v>
+      </c>
+      <c r="B380">
+        <v>10</v>
+      </c>
+      <c r="C380">
+        <v>9</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>11</v>
+      </c>
+      <c r="B381">
+        <v>10</v>
+      </c>
+      <c r="C381">
+        <v>15</v>
+      </c>
+      <c r="D381">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>15</v>
+      </c>
+      <c r="B382">
+        <v>14</v>
+      </c>
+      <c r="C382">
+        <v>13</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383">
+        <v>10</v>
+      </c>
+      <c r="C383">
+        <v>9</v>
+      </c>
+      <c r="D383">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>14</v>
+      </c>
+      <c r="B384">
+        <v>14</v>
+      </c>
+      <c r="C384">
+        <v>11</v>
+      </c>
+      <c r="D384">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>19</v>
+      </c>
+      <c r="B385">
+        <v>10</v>
+      </c>
+      <c r="C385">
+        <v>12</v>
+      </c>
+      <c r="D385">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>8</v>
+      </c>
+      <c r="B386">
+        <v>10</v>
+      </c>
+      <c r="C386">
+        <v>12</v>
+      </c>
+      <c r="D386">
+        <f t="shared" ref="D386:D449" si="6">B386-C386</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387">
+        <v>10</v>
+      </c>
+      <c r="C387">
+        <v>7</v>
+      </c>
+      <c r="D387">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388">
+        <v>10</v>
+      </c>
+      <c r="C388">
+        <v>7</v>
+      </c>
+      <c r="D388">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389">
+        <v>6</v>
+      </c>
+      <c r="C389">
+        <v>6</v>
+      </c>
+      <c r="D389">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>7</v>
+      </c>
+      <c r="B390">
+        <v>14</v>
+      </c>
+      <c r="C390">
+        <v>10</v>
+      </c>
+      <c r="D390">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>18</v>
+      </c>
+      <c r="B391">
+        <v>14</v>
+      </c>
+      <c r="C391">
+        <v>17</v>
+      </c>
+      <c r="D391">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>2</v>
+      </c>
+      <c r="B392">
+        <v>2</v>
+      </c>
+      <c r="C392">
+        <v>11</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="6"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>5</v>
+      </c>
+      <c r="B393">
+        <v>6</v>
+      </c>
+      <c r="C393">
+        <v>6</v>
+      </c>
+      <c r="D393">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394">
+        <v>14</v>
+      </c>
+      <c r="C394">
+        <v>9</v>
+      </c>
+      <c r="D394">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>13</v>
+      </c>
+      <c r="B395">
+        <v>14</v>
+      </c>
+      <c r="C395">
+        <v>14</v>
+      </c>
+      <c r="D395">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>8</v>
+      </c>
+      <c r="B396">
+        <v>10</v>
+      </c>
+      <c r="C396">
+        <v>12</v>
+      </c>
+      <c r="D396">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>12</v>
+      </c>
+      <c r="B397">
+        <v>10</v>
+      </c>
+      <c r="C397">
+        <v>9</v>
+      </c>
+      <c r="D397">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398">
+        <v>6</v>
+      </c>
+      <c r="C398">
+        <v>15</v>
+      </c>
+      <c r="D398">
+        <f t="shared" si="6"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>8</v>
+      </c>
+      <c r="B399">
+        <v>10</v>
+      </c>
+      <c r="C399">
+        <v>9</v>
+      </c>
+      <c r="D399">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>11</v>
+      </c>
+      <c r="B400">
+        <v>10</v>
+      </c>
+      <c r="C400">
+        <v>10</v>
+      </c>
+      <c r="D400">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401">
+        <v>6</v>
+      </c>
+      <c r="C401">
+        <v>6</v>
+      </c>
+      <c r="D401">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>7</v>
+      </c>
+      <c r="B402">
+        <v>14</v>
+      </c>
+      <c r="C402">
+        <v>10</v>
+      </c>
+      <c r="D402">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>15</v>
+      </c>
+      <c r="B403">
+        <v>14</v>
+      </c>
+      <c r="C403">
+        <v>16</v>
+      </c>
+      <c r="D403">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>10</v>
+      </c>
+      <c r="B404">
+        <v>14</v>
+      </c>
+      <c r="C404">
+        <v>9</v>
+      </c>
+      <c r="D404">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>8</v>
+      </c>
+      <c r="B405">
+        <v>10</v>
+      </c>
+      <c r="C405">
+        <v>12</v>
+      </c>
+      <c r="D405">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406">
+        <v>18</v>
+      </c>
+      <c r="C406">
+        <v>14</v>
+      </c>
+      <c r="D406">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>17</v>
+      </c>
+      <c r="B407">
+        <v>18</v>
+      </c>
+      <c r="C407">
+        <v>13</v>
+      </c>
+      <c r="D407">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>3</v>
+      </c>
+      <c r="B408">
+        <v>6</v>
+      </c>
+      <c r="C408">
+        <v>9</v>
+      </c>
+      <c r="D408">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>2</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409">
+        <v>9</v>
+      </c>
+      <c r="D409">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410">
+        <v>14</v>
+      </c>
+      <c r="C410">
+        <v>6</v>
+      </c>
+      <c r="D410">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>15</v>
+      </c>
+      <c r="B411">
+        <v>14</v>
+      </c>
+      <c r="C411">
+        <v>12</v>
+      </c>
+      <c r="D411">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>20</v>
+      </c>
+      <c r="B412">
+        <v>18</v>
+      </c>
+      <c r="C412">
+        <v>9</v>
+      </c>
+      <c r="D412">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>15</v>
+      </c>
+      <c r="B413">
+        <v>14</v>
+      </c>
+      <c r="C413">
+        <v>10</v>
+      </c>
+      <c r="D413">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>13</v>
+      </c>
+      <c r="B414">
+        <v>14</v>
+      </c>
+      <c r="C414">
+        <v>12</v>
+      </c>
+      <c r="D414">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>19</v>
+      </c>
+      <c r="B415">
+        <v>10</v>
+      </c>
+      <c r="C415">
+        <v>14</v>
+      </c>
+      <c r="D415">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>8</v>
+      </c>
+      <c r="B416">
+        <v>10</v>
+      </c>
+      <c r="C416">
+        <v>12</v>
+      </c>
+      <c r="D416">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>9</v>
+      </c>
+      <c r="B417">
+        <v>18</v>
+      </c>
+      <c r="C417">
+        <v>10</v>
+      </c>
+      <c r="D417">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>18</v>
+      </c>
+      <c r="B418">
+        <v>14</v>
+      </c>
+      <c r="C418">
+        <v>11</v>
+      </c>
+      <c r="D418">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419">
+        <v>14</v>
+      </c>
+      <c r="C419">
+        <v>11</v>
+      </c>
+      <c r="D419">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>2</v>
+      </c>
+      <c r="B420">
+        <v>2</v>
+      </c>
+      <c r="C420">
+        <v>12</v>
+      </c>
+      <c r="D420">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>21</v>
+      </c>
+      <c r="B421">
+        <v>14</v>
+      </c>
+      <c r="C421">
+        <v>15</v>
+      </c>
+      <c r="D421">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>2</v>
+      </c>
+      <c r="B422">
+        <v>2</v>
+      </c>
+      <c r="C422">
+        <v>6</v>
+      </c>
+      <c r="D422">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>16</v>
+      </c>
+      <c r="B423">
+        <v>14</v>
+      </c>
+      <c r="C423">
+        <v>12</v>
+      </c>
+      <c r="D423">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>22</v>
+      </c>
+      <c r="B424">
+        <v>18</v>
+      </c>
+      <c r="C424">
+        <v>14</v>
+      </c>
+      <c r="D424">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>8</v>
+      </c>
+      <c r="B425">
+        <v>10</v>
+      </c>
+      <c r="C425">
+        <v>9</v>
+      </c>
+      <c r="D425">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B426">
+        <v>18</v>
+      </c>
+      <c r="C426">
+        <v>11</v>
+      </c>
+      <c r="D426">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>2</v>
+      </c>
+      <c r="B427">
+        <v>2</v>
+      </c>
+      <c r="C427">
+        <v>11</v>
+      </c>
+      <c r="D427">
+        <f t="shared" si="6"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>17</v>
+      </c>
+      <c r="B428">
+        <v>18</v>
+      </c>
+      <c r="C428">
+        <v>9</v>
+      </c>
+      <c r="D428">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>5</v>
+      </c>
+      <c r="B429">
+        <v>6</v>
+      </c>
+      <c r="C429">
+        <v>6</v>
+      </c>
+      <c r="D429">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>22</v>
+      </c>
+      <c r="B430">
+        <v>18</v>
+      </c>
+      <c r="C430">
+        <v>7</v>
+      </c>
+      <c r="D430">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431">
+        <v>18</v>
+      </c>
+      <c r="C431">
+        <v>15</v>
+      </c>
+      <c r="D431">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>15</v>
+      </c>
+      <c r="B432">
+        <v>14</v>
+      </c>
+      <c r="C432">
+        <v>12</v>
+      </c>
+      <c r="D432">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>13</v>
+      </c>
+      <c r="B433">
+        <v>14</v>
+      </c>
+      <c r="C433">
+        <v>16</v>
+      </c>
+      <c r="D433">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>19</v>
+      </c>
+      <c r="B434">
+        <v>10</v>
+      </c>
+      <c r="C434">
+        <v>14</v>
+      </c>
+      <c r="D434">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435">
+        <v>6</v>
+      </c>
+      <c r="C435">
+        <v>6</v>
+      </c>
+      <c r="D435">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436">
+        <v>14</v>
+      </c>
+      <c r="C436">
+        <v>17</v>
+      </c>
+      <c r="D436">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>18</v>
+      </c>
+      <c r="B437">
+        <v>14</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+      <c r="D437">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>17</v>
+      </c>
+      <c r="B438">
+        <v>18</v>
+      </c>
+      <c r="C438">
+        <v>9</v>
+      </c>
+      <c r="D438">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>2</v>
+      </c>
+      <c r="B439">
+        <v>2</v>
+      </c>
+      <c r="C439">
+        <v>9</v>
+      </c>
+      <c r="D439">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>3</v>
+      </c>
+      <c r="B440">
+        <v>6</v>
+      </c>
+      <c r="C440">
+        <v>15</v>
+      </c>
+      <c r="D440">
+        <f t="shared" si="6"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>2</v>
+      </c>
+      <c r="B441">
+        <v>2</v>
+      </c>
+      <c r="C441">
+        <v>11</v>
+      </c>
+      <c r="D441">
+        <f t="shared" si="6"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>18</v>
+      </c>
+      <c r="B442">
+        <v>14</v>
+      </c>
+      <c r="C442">
+        <v>14</v>
+      </c>
+      <c r="D442">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>18</v>
+      </c>
+      <c r="B443">
+        <v>14</v>
+      </c>
+      <c r="C443">
+        <v>4</v>
+      </c>
+      <c r="D443">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>15</v>
+      </c>
+      <c r="B444">
+        <v>14</v>
+      </c>
+      <c r="C444">
+        <v>11</v>
+      </c>
+      <c r="D444">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>12</v>
+      </c>
+      <c r="B445">
+        <v>10</v>
+      </c>
+      <c r="C445">
+        <v>14</v>
+      </c>
+      <c r="D445">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>14</v>
+      </c>
+      <c r="B446">
+        <v>14</v>
+      </c>
+      <c r="C446">
+        <v>11</v>
+      </c>
+      <c r="D446">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>3</v>
+      </c>
+      <c r="B447">
+        <v>6</v>
+      </c>
+      <c r="C447">
+        <v>13</v>
+      </c>
+      <c r="D447">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>19</v>
+      </c>
+      <c r="B448">
+        <v>10</v>
+      </c>
+      <c r="C448">
+        <v>14</v>
+      </c>
+      <c r="D448">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>15</v>
+      </c>
+      <c r="B449">
+        <v>14</v>
+      </c>
+      <c r="C449">
+        <v>9</v>
+      </c>
+      <c r="D449">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>13</v>
+      </c>
+      <c r="B450">
+        <v>14</v>
+      </c>
+      <c r="C450">
+        <v>9</v>
+      </c>
+      <c r="D450">
+        <f t="shared" ref="D450:D513" si="7">B450-C450</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>11</v>
+      </c>
+      <c r="B451">
+        <v>10</v>
+      </c>
+      <c r="C451">
+        <v>13</v>
+      </c>
+      <c r="D451">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>15</v>
+      </c>
+      <c r="B452">
+        <v>14</v>
+      </c>
+      <c r="C452">
+        <v>9</v>
+      </c>
+      <c r="D452">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>3</v>
+      </c>
+      <c r="B453">
+        <v>6</v>
+      </c>
+      <c r="C453">
+        <v>9</v>
+      </c>
+      <c r="D453">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>19</v>
+      </c>
+      <c r="B454">
+        <v>10</v>
+      </c>
+      <c r="C454">
+        <v>8</v>
+      </c>
+      <c r="D454">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>5</v>
+      </c>
+      <c r="B455">
+        <v>6</v>
+      </c>
+      <c r="C455">
+        <v>4</v>
+      </c>
+      <c r="D455">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>13</v>
+      </c>
+      <c r="B456">
+        <v>14</v>
+      </c>
+      <c r="C456">
+        <v>12</v>
+      </c>
+      <c r="D456">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>15</v>
+      </c>
+      <c r="B457">
+        <v>14</v>
+      </c>
+      <c r="C457">
+        <v>11</v>
+      </c>
+      <c r="D457">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>14</v>
+      </c>
+      <c r="B458">
+        <v>14</v>
+      </c>
+      <c r="C458">
+        <v>9</v>
+      </c>
+      <c r="D458">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>19</v>
+      </c>
+      <c r="B459">
+        <v>10</v>
+      </c>
+      <c r="C459">
+        <v>7</v>
+      </c>
+      <c r="D459">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>13</v>
+      </c>
+      <c r="B460">
+        <v>14</v>
+      </c>
+      <c r="C460">
+        <v>10</v>
+      </c>
+      <c r="D460">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>8</v>
+      </c>
+      <c r="B461">
+        <v>10</v>
+      </c>
+      <c r="C461">
+        <v>12</v>
+      </c>
+      <c r="D461">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B462">
+        <v>18</v>
+      </c>
+      <c r="C462">
+        <v>14</v>
+      </c>
+      <c r="D462">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>2</v>
+      </c>
+      <c r="B463">
+        <v>2</v>
+      </c>
+      <c r="C463">
+        <v>16</v>
+      </c>
+      <c r="D463">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>11</v>
+      </c>
+      <c r="B464">
+        <v>10</v>
+      </c>
+      <c r="C464">
+        <v>13</v>
+      </c>
+      <c r="D464">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>19</v>
+      </c>
+      <c r="B465">
+        <v>10</v>
+      </c>
+      <c r="C465">
+        <v>9</v>
+      </c>
+      <c r="D465">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>2</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+      <c r="C466">
+        <v>6</v>
+      </c>
+      <c r="D466">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>16</v>
+      </c>
+      <c r="B467">
+        <v>14</v>
+      </c>
+      <c r="C467">
+        <v>17</v>
+      </c>
+      <c r="D467">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>2</v>
+      </c>
+      <c r="B468">
+        <v>2</v>
+      </c>
+      <c r="C468">
+        <v>6</v>
+      </c>
+      <c r="D468">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469">
+        <v>6</v>
+      </c>
+      <c r="C469">
+        <v>4</v>
+      </c>
+      <c r="D469">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>14</v>
+      </c>
+      <c r="B470">
+        <v>14</v>
+      </c>
+      <c r="C470">
+        <v>7</v>
+      </c>
+      <c r="D470">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>2</v>
+      </c>
+      <c r="B471">
+        <v>2</v>
+      </c>
+      <c r="C471">
+        <v>6</v>
+      </c>
+      <c r="D471">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>13</v>
+      </c>
+      <c r="B472">
+        <v>14</v>
+      </c>
+      <c r="C472">
+        <v>12</v>
+      </c>
+      <c r="D472">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473">
+        <v>6</v>
+      </c>
+      <c r="C473">
+        <v>4</v>
+      </c>
+      <c r="D473">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>12</v>
+      </c>
+      <c r="B474">
+        <v>10</v>
+      </c>
+      <c r="C474">
+        <v>17</v>
+      </c>
+      <c r="D474">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>10</v>
+      </c>
+      <c r="B475">
+        <v>14</v>
+      </c>
+      <c r="C475">
+        <v>11</v>
+      </c>
+      <c r="D475">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476">
+        <v>6</v>
+      </c>
+      <c r="C476">
+        <v>4</v>
+      </c>
+      <c r="D476">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>14</v>
+      </c>
+      <c r="B477">
+        <v>14</v>
+      </c>
+      <c r="C477">
+        <v>7</v>
+      </c>
+      <c r="D477">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>2</v>
+      </c>
+      <c r="B478">
+        <v>2</v>
+      </c>
+      <c r="C478">
+        <v>9</v>
+      </c>
+      <c r="D478">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>13</v>
+      </c>
+      <c r="B479">
+        <v>14</v>
+      </c>
+      <c r="C479">
+        <v>10</v>
+      </c>
+      <c r="D479">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>19</v>
+      </c>
+      <c r="B480">
+        <v>10</v>
+      </c>
+      <c r="C480">
+        <v>11</v>
+      </c>
+      <c r="D480">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>2</v>
+      </c>
+      <c r="B481">
+        <v>2</v>
+      </c>
+      <c r="C481">
+        <v>9</v>
+      </c>
+      <c r="D481">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>12</v>
+      </c>
+      <c r="B482">
+        <v>10</v>
+      </c>
+      <c r="C482">
+        <v>15</v>
+      </c>
+      <c r="D482">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>22</v>
+      </c>
+      <c r="B483">
+        <v>18</v>
+      </c>
+      <c r="C483">
+        <v>11</v>
+      </c>
+      <c r="D483">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>2</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+      <c r="C484">
+        <v>12</v>
+      </c>
+      <c r="D484">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>3</v>
+      </c>
+      <c r="B485">
+        <v>6</v>
+      </c>
+      <c r="C485">
+        <v>18</v>
+      </c>
+      <c r="D485">
+        <f t="shared" si="7"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>11</v>
+      </c>
+      <c r="B486">
+        <v>10</v>
+      </c>
+      <c r="C486">
+        <v>7</v>
+      </c>
+      <c r="D486">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>8</v>
+      </c>
+      <c r="B487">
+        <v>10</v>
+      </c>
+      <c r="C487">
+        <v>14</v>
+      </c>
+      <c r="D487">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>16</v>
+      </c>
+      <c r="B488">
+        <v>14</v>
+      </c>
+      <c r="C488">
+        <v>12</v>
+      </c>
+      <c r="D488">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>8</v>
+      </c>
+      <c r="B489">
+        <v>10</v>
+      </c>
+      <c r="C489">
+        <v>9</v>
+      </c>
+      <c r="D489">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490">
+        <v>6</v>
+      </c>
+      <c r="C490">
+        <v>6</v>
+      </c>
+      <c r="D490">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>10</v>
+      </c>
+      <c r="B491">
+        <v>14</v>
+      </c>
+      <c r="C491">
+        <v>14</v>
+      </c>
+      <c r="D491">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>13</v>
+      </c>
+      <c r="B492">
+        <v>14</v>
+      </c>
+      <c r="C492">
+        <v>12</v>
+      </c>
+      <c r="D492">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>10</v>
+      </c>
+      <c r="B493">
+        <v>14</v>
+      </c>
+      <c r="C493">
+        <v>9</v>
+      </c>
+      <c r="D493">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>15</v>
+      </c>
+      <c r="B494">
+        <v>14</v>
+      </c>
+      <c r="C494">
+        <v>14</v>
+      </c>
+      <c r="D494">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>21</v>
+      </c>
+      <c r="B495">
+        <v>14</v>
+      </c>
+      <c r="C495">
+        <v>12</v>
+      </c>
+      <c r="D495">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>2</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496">
+        <v>11</v>
+      </c>
+      <c r="D496">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>16</v>
+      </c>
+      <c r="B497">
+        <v>14</v>
+      </c>
+      <c r="C497">
+        <v>7</v>
+      </c>
+      <c r="D497">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>14</v>
+      </c>
+      <c r="B498">
+        <v>14</v>
+      </c>
+      <c r="C498">
+        <v>9</v>
+      </c>
+      <c r="D498">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>2</v>
+      </c>
+      <c r="B499">
+        <v>2</v>
+      </c>
+      <c r="C499">
+        <v>6</v>
+      </c>
+      <c r="D499">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>10</v>
+      </c>
+      <c r="B500">
+        <v>14</v>
+      </c>
+      <c r="C500">
+        <v>6</v>
+      </c>
+      <c r="D500">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>15</v>
+      </c>
+      <c r="B501">
+        <v>14</v>
+      </c>
+      <c r="C501">
+        <v>12</v>
+      </c>
+      <c r="D501">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>12</v>
+      </c>
+      <c r="B502">
+        <v>10</v>
+      </c>
+      <c r="C502">
+        <v>9</v>
+      </c>
+      <c r="D502">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503">
+        <v>6</v>
+      </c>
+      <c r="C503">
+        <v>4</v>
+      </c>
+      <c r="D503">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>11</v>
+      </c>
+      <c r="B504">
+        <v>10</v>
+      </c>
+      <c r="C504">
+        <v>13</v>
+      </c>
+      <c r="D504">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>8</v>
+      </c>
+      <c r="B505">
+        <v>10</v>
+      </c>
+      <c r="C505">
+        <v>14</v>
+      </c>
+      <c r="D505">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>8</v>
+      </c>
+      <c r="B506">
+        <v>10</v>
+      </c>
+      <c r="C506">
+        <v>4</v>
+      </c>
+      <c r="D506">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>10</v>
+      </c>
+      <c r="B507">
+        <v>14</v>
+      </c>
+      <c r="C507">
+        <v>9</v>
+      </c>
+      <c r="D507">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>5</v>
+      </c>
+      <c r="B508">
+        <v>6</v>
+      </c>
+      <c r="C508">
+        <v>4</v>
+      </c>
+      <c r="D508">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>12</v>
+      </c>
+      <c r="B509">
+        <v>10</v>
+      </c>
+      <c r="C509">
+        <v>12</v>
+      </c>
+      <c r="D509">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>10</v>
+      </c>
+      <c r="B510">
+        <v>14</v>
+      </c>
+      <c r="C510">
+        <v>6</v>
+      </c>
+      <c r="D510">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>15</v>
+      </c>
+      <c r="B511">
+        <v>14</v>
+      </c>
+      <c r="C511">
+        <v>9</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>15</v>
+      </c>
+      <c r="B512">
+        <v>14</v>
+      </c>
+      <c r="C512">
+        <v>12</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>3</v>
+      </c>
+      <c r="B513">
+        <v>10</v>
+      </c>
+      <c r="C513">
+        <v>17</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>8</v>
+      </c>
+      <c r="B514">
+        <v>6</v>
+      </c>
+      <c r="C514">
+        <v>11</v>
+      </c>
+      <c r="D514">
+        <f t="shared" ref="D514:D577" si="8">B514-C514</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>8</v>
+      </c>
+      <c r="B515">
+        <v>6</v>
+      </c>
+      <c r="C515">
+        <v>4</v>
+      </c>
+      <c r="D515">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>6</v>
+      </c>
+      <c r="B516">
+        <v>18</v>
+      </c>
+      <c r="C516">
+        <v>11</v>
+      </c>
+      <c r="D516">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>3</v>
+      </c>
+      <c r="B517">
+        <v>10</v>
+      </c>
+      <c r="C517">
+        <v>13</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>19</v>
+      </c>
+      <c r="B518">
+        <v>10</v>
+      </c>
+      <c r="C518">
+        <v>12</v>
+      </c>
+      <c r="D518">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>2</v>
+      </c>
+      <c r="B519">
+        <v>2</v>
+      </c>
+      <c r="C519">
+        <v>11</v>
+      </c>
+      <c r="D519">
+        <f t="shared" si="8"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>8</v>
+      </c>
+      <c r="B520">
+        <v>6</v>
+      </c>
+      <c r="C520">
+        <v>18</v>
+      </c>
+      <c r="D520">
+        <f t="shared" si="8"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>12</v>
+      </c>
+      <c r="B521">
+        <v>10</v>
+      </c>
+      <c r="C521">
+        <v>12</v>
+      </c>
+      <c r="D521">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>2</v>
+      </c>
+      <c r="B522">
+        <v>2</v>
+      </c>
+      <c r="C522">
+        <v>9</v>
+      </c>
+      <c r="D522">
+        <f t="shared" si="8"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>18</v>
+      </c>
+      <c r="B523">
+        <v>14</v>
+      </c>
+      <c r="C523">
+        <v>15</v>
+      </c>
+      <c r="D523">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>2</v>
+      </c>
+      <c r="B524">
+        <v>2</v>
+      </c>
+      <c r="C524">
+        <v>11</v>
+      </c>
+      <c r="D524">
+        <f t="shared" si="8"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>13</v>
+      </c>
+      <c r="B525">
+        <v>14</v>
+      </c>
+      <c r="C525">
+        <v>15</v>
+      </c>
+      <c r="D525">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>13</v>
+      </c>
+      <c r="B526">
+        <v>14</v>
+      </c>
+      <c r="C526">
+        <v>4</v>
+      </c>
+      <c r="D526">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>3</v>
+      </c>
+      <c r="B527">
+        <v>10</v>
+      </c>
+      <c r="C527">
+        <v>10</v>
+      </c>
+      <c r="D527">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>16</v>
+      </c>
+      <c r="B528">
+        <v>14</v>
+      </c>
+      <c r="C528">
+        <v>14</v>
+      </c>
+      <c r="D528">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>5</v>
+      </c>
+      <c r="B529">
+        <v>6</v>
+      </c>
+      <c r="C529">
+        <v>6</v>
+      </c>
+      <c r="D529">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>21</v>
+      </c>
+      <c r="B530">
+        <v>14</v>
+      </c>
+      <c r="C530">
+        <v>12</v>
+      </c>
+      <c r="D530">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>2</v>
+      </c>
+      <c r="B531">
+        <v>2</v>
+      </c>
+      <c r="C531">
+        <v>9</v>
+      </c>
+      <c r="D531">
+        <f t="shared" si="8"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>18</v>
+      </c>
+      <c r="B532">
+        <v>14</v>
+      </c>
+      <c r="C532">
+        <v>7</v>
+      </c>
+      <c r="D532">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>2</v>
+      </c>
+      <c r="B533">
+        <v>2</v>
+      </c>
+      <c r="C533">
+        <v>6</v>
+      </c>
+      <c r="D533">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>10</v>
+      </c>
+      <c r="B534">
+        <v>14</v>
+      </c>
+      <c r="C534">
+        <v>6</v>
+      </c>
+      <c r="D534">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>17</v>
+      </c>
+      <c r="B535">
+        <v>18</v>
+      </c>
+      <c r="C535">
+        <v>9</v>
+      </c>
+      <c r="D535">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>7</v>
+      </c>
+      <c r="B536">
+        <v>14</v>
+      </c>
+      <c r="C536">
+        <v>18</v>
+      </c>
+      <c r="D536">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>5</v>
+      </c>
+      <c r="B537">
+        <v>6</v>
+      </c>
+      <c r="C537">
+        <v>4</v>
+      </c>
+      <c r="D537">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>12</v>
+      </c>
+      <c r="B538">
+        <v>10</v>
+      </c>
+      <c r="C538">
+        <v>21</v>
+      </c>
+      <c r="D538">
+        <f t="shared" si="8"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>10</v>
+      </c>
+      <c r="B539">
+        <v>14</v>
+      </c>
+      <c r="C539">
+        <v>11</v>
+      </c>
+      <c r="D539">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>3</v>
+      </c>
+      <c r="B540">
+        <v>10</v>
+      </c>
+      <c r="C540">
+        <v>15</v>
+      </c>
+      <c r="D540">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>19</v>
+      </c>
+      <c r="B541">
+        <v>14</v>
+      </c>
+      <c r="C541">
+        <v>16</v>
+      </c>
+      <c r="D541">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>5</v>
+      </c>
+      <c r="B542">
+        <v>6</v>
+      </c>
+      <c r="C542">
+        <v>6</v>
+      </c>
+      <c r="D542">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>3</v>
+      </c>
+      <c r="B543">
+        <v>10</v>
+      </c>
+      <c r="C543">
+        <v>10</v>
+      </c>
+      <c r="D543">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>19</v>
+      </c>
+      <c r="B544">
+        <v>14</v>
+      </c>
+      <c r="C544">
+        <v>9</v>
+      </c>
+      <c r="D544">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>5</v>
+      </c>
+      <c r="B545">
+        <v>6</v>
+      </c>
+      <c r="C545">
+        <v>6</v>
+      </c>
+      <c r="D545">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>13</v>
+      </c>
+      <c r="B546">
+        <v>14</v>
+      </c>
+      <c r="C546">
+        <v>15</v>
+      </c>
+      <c r="D546">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>4</v>
+      </c>
+      <c r="B547">
+        <v>18</v>
+      </c>
+      <c r="C547">
+        <v>17</v>
+      </c>
+      <c r="D547">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>5</v>
+      </c>
+      <c r="B548">
+        <v>6</v>
+      </c>
+      <c r="C548">
+        <v>6</v>
+      </c>
+      <c r="D548">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>10</v>
+      </c>
+      <c r="B549">
+        <v>14</v>
+      </c>
+      <c r="C549">
+        <v>11</v>
+      </c>
+      <c r="D549">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>2</v>
+      </c>
+      <c r="B550">
+        <v>2</v>
+      </c>
+      <c r="C550">
+        <v>9</v>
+      </c>
+      <c r="D550">
+        <f t="shared" si="8"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>5</v>
+      </c>
+      <c r="B551">
+        <v>6</v>
+      </c>
+      <c r="C551">
+        <v>4</v>
+      </c>
+      <c r="D551">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>18</v>
+      </c>
+      <c r="B552">
+        <v>14</v>
+      </c>
+      <c r="C552">
+        <v>12</v>
+      </c>
+      <c r="D552">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>18</v>
+      </c>
+      <c r="B553">
+        <v>14</v>
+      </c>
+      <c r="C553">
+        <v>4</v>
+      </c>
+      <c r="D553">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>3</v>
+      </c>
+      <c r="B554">
+        <v>6</v>
+      </c>
+      <c r="C554">
+        <v>13</v>
+      </c>
+      <c r="D554">
+        <f t="shared" si="8"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>19</v>
+      </c>
+      <c r="B555">
+        <v>10</v>
+      </c>
+      <c r="C555">
+        <v>11</v>
+      </c>
+      <c r="D555">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>2</v>
+      </c>
+      <c r="B556">
+        <v>2</v>
+      </c>
+      <c r="C556">
+        <v>9</v>
+      </c>
+      <c r="D556">
+        <f t="shared" si="8"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>10</v>
+      </c>
+      <c r="B557">
+        <v>14</v>
+      </c>
+      <c r="C557">
+        <v>7</v>
+      </c>
+      <c r="D557">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>15</v>
+      </c>
+      <c r="B558">
+        <v>14</v>
+      </c>
+      <c r="C558">
+        <v>14</v>
+      </c>
+      <c r="D558">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>20</v>
+      </c>
+      <c r="B559">
+        <v>18</v>
+      </c>
+      <c r="C559">
+        <v>11</v>
+      </c>
+      <c r="D559">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>20</v>
+      </c>
+      <c r="B560">
+        <v>18</v>
+      </c>
+      <c r="C560">
+        <v>4</v>
+      </c>
+      <c r="D560">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>2</v>
+      </c>
+      <c r="B561">
+        <v>2</v>
+      </c>
+      <c r="C561">
+        <v>6</v>
+      </c>
+      <c r="D561">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>16</v>
+      </c>
+      <c r="B562">
+        <v>14</v>
+      </c>
+      <c r="C562">
+        <v>20</v>
+      </c>
+      <c r="D562">
+        <f t="shared" si="8"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>2</v>
+      </c>
+      <c r="B563">
+        <v>2</v>
+      </c>
+      <c r="C563">
+        <v>6</v>
+      </c>
+      <c r="D563">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>12</v>
+      </c>
+      <c r="B564">
+        <v>10</v>
+      </c>
+      <c r="C564">
+        <v>12</v>
+      </c>
+      <c r="D564">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>22</v>
+      </c>
+      <c r="B565">
+        <v>18</v>
+      </c>
+      <c r="C565">
+        <v>11</v>
+      </c>
+      <c r="D565">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>2</v>
+      </c>
+      <c r="B566">
+        <v>2</v>
+      </c>
+      <c r="C566">
+        <v>12</v>
+      </c>
+      <c r="D566">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C567" t="s">
+        <v>25</v>
+      </c>
+      <c r="D567">
+        <f>SUM(D2:D566)</f>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
